--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -481,7 +481,7 @@
     <t>Architect of the Capitol</t>
   </si>
   <si>
-    <t>Armed forces Retirement Home</t>
+    <t>Armed Forces Retirement Home</t>
   </si>
   <si>
     <t>Barry Goldwater Scholarship and Excellence In Education Fund</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">Council of the Inspectors General on Integrity and Efficiency </t>
   </si>
   <si>
-    <t>Court Services and offender Supervision Agency for the District of Columbia</t>
+    <t>Court Services and Offender Supervision Agency for the District of Columbia</t>
   </si>
   <si>
     <t>Defense Nuclear Facilities Safety Board</t>

--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>CGAC</t>
   </si>
@@ -28,87 +28,42 @@
     <t>302</t>
   </si>
   <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>072</t>
   </si>
   <si>
-    <t>074</t>
-  </si>
-  <si>
     <t>309</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>084</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
     <t>514</t>
   </si>
   <si>
     <t>581</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
     <t>510</t>
   </si>
   <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
     <t>338</t>
   </si>
   <si>
     <t>339</t>
   </si>
   <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>061</t>
   </si>
   <si>
     <t>485</t>
   </si>
   <si>
-    <t>580</t>
-  </si>
-  <si>
     <t>096</t>
   </si>
   <si>
     <t>542</t>
   </si>
   <si>
-    <t>511</t>
-  </si>
-  <si>
     <t>347</t>
   </si>
   <si>
@@ -145,9 +100,6 @@
     <t>015</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
     <t>019</t>
   </si>
   <si>
@@ -172,48 +124,21 @@
     <t>525</t>
   </si>
   <si>
-    <t>531</t>
-  </si>
-  <si>
     <t>068</t>
   </si>
   <si>
     <t>045</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>083</t>
   </si>
   <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
     <t>027</t>
   </si>
   <si>
-    <t>051</t>
-  </si>
-  <si>
     <t>360</t>
   </si>
   <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
     <t>054</t>
   </si>
   <si>
@@ -226,84 +151,30 @@
     <t>368</t>
   </si>
   <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
     <t>029</t>
   </si>
   <si>
-    <t>920</t>
-  </si>
-  <si>
     <t>047</t>
   </si>
   <si>
     <t>005</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>471</t>
   </si>
   <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
     <t>474</t>
   </si>
   <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
     <t>034</t>
   </si>
   <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>387</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>389</t>
   </si>
   <si>
-    <t>479</t>
-  </si>
-  <si>
     <t>524</t>
   </si>
   <si>
@@ -319,9 +190,6 @@
     <t>394</t>
   </si>
   <si>
-    <t>413</t>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
@@ -331,87 +199,39 @@
     <t>418</t>
   </si>
   <si>
-    <t>538</t>
-  </si>
-  <si>
     <t>420</t>
   </si>
   <si>
     <t>421</t>
   </si>
   <si>
-    <t>575</t>
-  </si>
-  <si>
     <t>049</t>
   </si>
   <si>
     <t>424</t>
   </si>
   <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
     <t>031</t>
   </si>
   <si>
     <t>432</t>
   </si>
   <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
     <t>062</t>
   </si>
   <si>
-    <t>534</t>
-  </si>
-  <si>
     <t>431</t>
   </si>
   <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>071</t>
   </si>
   <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
     <t>060</t>
   </si>
   <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
     <t>050</t>
   </si>
   <si>
@@ -421,129 +241,51 @@
     <t>073</t>
   </si>
   <si>
-    <t>033</t>
-  </si>
-  <si>
     <t>028</t>
   </si>
   <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
     <t>472</t>
   </si>
   <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
     <t>Administrative Conference of the U. S.</t>
   </si>
   <si>
-    <t>Advisory Council on Historic Preservation</t>
-  </si>
-  <si>
-    <t>Affordable Housing Program</t>
-  </si>
-  <si>
     <t>Agency for International Development</t>
   </si>
   <si>
-    <t>American Battle Monuments Commission</t>
-  </si>
-  <si>
     <t>Appalachian Regional Commission</t>
   </si>
   <si>
-    <t>Architect of the Capitol</t>
-  </si>
-  <si>
     <t>Armed Forces Retirement Home</t>
   </si>
   <si>
-    <t>Barry Goldwater Scholarship and Excellence In Education Fund</t>
-  </si>
-  <si>
-    <t>Botanic Garden</t>
-  </si>
-  <si>
     <t>Broadcasting Board of Governors</t>
   </si>
   <si>
     <t>Bureau of Consumer Financial Protection</t>
   </si>
   <si>
-    <t>Capitol Police</t>
-  </si>
-  <si>
-    <t>Central Intelligence Agency</t>
-  </si>
-  <si>
     <t>Chemical Safety and Hazard Investigation Board</t>
   </si>
   <si>
-    <t>Christopher Columbus Fellowship Foundation</t>
-  </si>
-  <si>
-    <t>Civilian Property Realignment Board</t>
-  </si>
-  <si>
-    <t>Commission of Fine Arts</t>
-  </si>
-  <si>
-    <t>Commission on Civil Rights</t>
-  </si>
-  <si>
     <t>Committee for Purchase From People Who Are Blind or Severely Disabled</t>
   </si>
   <si>
     <t>Commodity Futures Trading Commission</t>
   </si>
   <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
     <t>Consumer Product Safety Commission</t>
   </si>
   <si>
     <t>Corporation for National and Community Service</t>
   </si>
   <si>
-    <t>Corporation for Travel Promotion</t>
-  </si>
-  <si>
     <t>Corps of Engineers - Civil Works</t>
   </si>
   <si>
     <t xml:space="preserve">Council of the Inspectors General on Integrity and Efficiency </t>
   </si>
   <si>
-    <t>Court Services and Offender Supervision Agency for the District of Columbia</t>
-  </si>
-  <si>
     <t>Defense Nuclear Facilities Safety Board</t>
   </si>
   <si>
@@ -580,9 +322,6 @@
     <t>Department of Justice</t>
   </si>
   <si>
-    <t>Department of Labor</t>
-  </si>
-  <si>
     <t>Department of State</t>
   </si>
   <si>
@@ -607,48 +346,21 @@
     <t>Election Assistance Commission</t>
   </si>
   <si>
-    <t>Electric Reliability Organization</t>
-  </si>
-  <si>
     <t>Environmental Protection Agency</t>
   </si>
   <si>
     <t>Equal Employment Opportunity Commission</t>
   </si>
   <si>
-    <t>Executive Office of the President</t>
-  </si>
-  <si>
     <t>Export-Import Bank of the U.S.</t>
   </si>
   <si>
-    <t>Farm Credit Administration</t>
-  </si>
-  <si>
-    <t>Farm Credit System</t>
-  </si>
-  <si>
     <t>Federal Communications Commission</t>
   </si>
   <si>
-    <t>Federal Deposit Insurance Corporation</t>
-  </si>
-  <si>
     <t>Federal Election Commission</t>
   </si>
   <si>
-    <t>Federal Financial Institutions Examination Council</t>
-  </si>
-  <si>
-    <t>Federal Home Loan Bank System</t>
-  </si>
-  <si>
-    <t>Federal Home Loan Mortgage Corporation</t>
-  </si>
-  <si>
-    <t>Federal Housing Finance Agency</t>
-  </si>
-  <si>
     <t>Federal Labor Relations Authority</t>
   </si>
   <si>
@@ -661,84 +373,30 @@
     <t>Federal Mine Safety and Health Review Commission</t>
   </si>
   <si>
-    <t>Federal National Mortgage Association</t>
-  </si>
-  <si>
-    <t>Federal Permitting Improvement Steering Council</t>
-  </si>
-  <si>
-    <t>Federal Retirement Thrift Investment Board</t>
-  </si>
-  <si>
     <t>Federal Trade Commission</t>
   </si>
   <si>
-    <t>Financing Vehicles and the Board of Governors of the Federal Reserve</t>
-  </si>
-  <si>
     <t>General Services Administration</t>
   </si>
   <si>
     <t>Government Accountability Office</t>
   </si>
   <si>
-    <t>Government Publishing Office</t>
-  </si>
-  <si>
     <t>Gulf Coast Ecosystem Restoration Council</t>
   </si>
   <si>
-    <t>Harry S Truman Scholarship Foundation</t>
-  </si>
-  <si>
-    <t>Independent Payment Advisory Board</t>
-  </si>
-  <si>
-    <t>Indian Law and order Commission</t>
-  </si>
-  <si>
-    <t>Institute of American Indian and Alaska Native Culture and Arts Development</t>
-  </si>
-  <si>
     <t>Institute of Museum Services and Library Services</t>
   </si>
   <si>
-    <t>Intelligence Community Management Account</t>
-  </si>
-  <si>
-    <t>Inter-Agency Council for Homeless</t>
-  </si>
-  <si>
     <t>International Trade Commission</t>
   </si>
   <si>
-    <t>James Madison Memorial Fellowship Foundation</t>
-  </si>
-  <si>
-    <t>Judicial Branch</t>
-  </si>
-  <si>
-    <t>Legislative Branch</t>
-  </si>
-  <si>
-    <t>Legislative Branch Boards and Commissions</t>
-  </si>
-  <si>
-    <t>Library of Congress</t>
-  </si>
-  <si>
     <t>Marine Mammal Commission</t>
   </si>
   <si>
-    <t xml:space="preserve">Medicare Payment Advisory Commission  </t>
-  </si>
-  <si>
     <t>Merit Systems Protection Board</t>
   </si>
   <si>
-    <t>Military Compensation and Retirement Modernization Commission</t>
-  </si>
-  <si>
     <t>Millenium Challenge Corporation</t>
   </si>
   <si>
@@ -754,9 +412,6 @@
     <t>National Capital Planning Commission</t>
   </si>
   <si>
-    <t>National Council on Disability</t>
-  </si>
-  <si>
     <t>National Credit Union Administration</t>
   </si>
   <si>
@@ -766,87 +421,39 @@
     <t>National Endowment for the Humanities</t>
   </si>
   <si>
-    <t>National Infrastructure Bank</t>
-  </si>
-  <si>
     <t>National Labor Relations Board</t>
   </si>
   <si>
     <t>National Mediation Board</t>
   </si>
   <si>
-    <t>National Railroad Passenger Corporation Office of the Inspector General</t>
-  </si>
-  <si>
     <t>National Science Foundation</t>
   </si>
   <si>
     <t>National Transportation Safety Board</t>
   </si>
   <si>
-    <t>Neighborhood Reinvestment Corporation</t>
-  </si>
-  <si>
-    <t>Northern Border Regional Commission</t>
-  </si>
-  <si>
     <t>Nuclear Regulatory Commission</t>
   </si>
   <si>
     <t>Occupational Safety and Health Review Commission</t>
   </si>
   <si>
-    <t>Office of Government Ethics</t>
-  </si>
-  <si>
-    <t>Office of Navajo and Hopi Indian Relocation</t>
-  </si>
-  <si>
     <t>Office of Personnel Management</t>
   </si>
   <si>
     <t>Office of Special Counsel</t>
   </si>
   <si>
-    <t>Office of the Federal Coordinator for Alaska Natural Gas Transportation Projects</t>
-  </si>
-  <si>
     <t>Office of the Nuclear Waste Negotiation</t>
   </si>
   <si>
-    <t>Other Commissions and Boards</t>
-  </si>
-  <si>
-    <t>Other Independent Agencies</t>
-  </si>
-  <si>
     <t>Overseas Private Investment Corporation</t>
   </si>
   <si>
-    <t>Patient-Centered Outcomes Research Trust Fund</t>
-  </si>
-  <si>
-    <t>Postal Service</t>
-  </si>
-  <si>
-    <t>Presidio Trust</t>
-  </si>
-  <si>
-    <t>Privacy and Civil Liberties Oversight Board</t>
-  </si>
-  <si>
-    <t>Public Company Accounting Oversight Board</t>
-  </si>
-  <si>
     <t>Railroad Retirement Board</t>
   </si>
   <si>
-    <t>Recovery Act Accountability and Transparency Board</t>
-  </si>
-  <si>
-    <t>Securities Investor Protection Corporation</t>
-  </si>
-  <si>
     <t>Securities and Exchange Commission</t>
   </si>
   <si>
@@ -856,43 +463,10 @@
     <t>Small Business Administration</t>
   </si>
   <si>
-    <t>Smithsonian Institution</t>
-  </si>
-  <si>
     <t>Social Security Administration</t>
   </si>
   <si>
-    <t>Standard Setting Body</t>
-  </si>
-  <si>
-    <t>State Justice Institute</t>
-  </si>
-  <si>
     <t>Surface Transportation Board</t>
-  </si>
-  <si>
-    <t>Tennessee Valley Authority</t>
-  </si>
-  <si>
-    <t>U.S. Court of Veteran Appeals</t>
-  </si>
-  <si>
-    <t>U.S. Tax Court</t>
-  </si>
-  <si>
-    <t>United Mine Workers of America Benefit Funds</t>
-  </si>
-  <si>
-    <t>United States Enrichment Corporation Fund</t>
-  </si>
-  <si>
-    <t>United States Holocaust Memorial Museum</t>
-  </si>
-  <si>
-    <t>United States Institute of Peace</t>
-  </si>
-  <si>
-    <t>Vietnam Education Foundation</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1277,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1285,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1293,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1301,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1309,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1317,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1325,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1333,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1341,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1349,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1357,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1365,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1373,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1381,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1389,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1397,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1405,7 +979,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1413,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1421,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1429,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1437,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1445,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1453,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1461,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1469,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1477,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1485,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1493,7 +1067,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1501,7 +1075,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1509,7 +1083,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1517,7 +1091,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1525,7 +1099,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1533,7 +1107,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1541,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1549,7 +1123,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1557,7 +1131,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1565,7 +1139,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1573,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1581,7 +1155,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1589,7 +1163,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1597,7 +1171,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1605,7 +1179,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1613,7 +1187,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1621,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1629,7 +1203,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1637,7 +1211,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1645,7 +1219,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1653,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1661,7 +1235,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1669,7 +1243,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1677,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1685,7 +1259,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1693,7 +1267,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1701,7 +1275,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1709,7 +1283,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1717,7 +1291,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1725,7 +1299,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1733,7 +1307,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1741,7 +1315,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1749,7 +1323,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1757,7 +1331,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1765,7 +1339,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1773,7 +1347,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1781,7 +1355,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1789,7 +1363,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1797,7 +1371,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1805,7 +1379,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1813,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1821,7 +1395,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1829,7 +1403,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1837,7 +1411,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1845,7 +1419,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1853,7 +1427,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1861,575 +1435,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="379">
   <si>
     <t>CGAC</t>
   </si>
@@ -22,6 +22,18 @@
     <t>AGENCY NAME</t>
   </si>
   <si>
+    <t>OTHER NAME</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -467,13 +479,686 @@
   </si>
   <si>
     <t>Surface Transportation Board</t>
+  </si>
+  <si>
+    <t>Administrative Conference of the United States</t>
+  </si>
+  <si>
+    <t>Agency for International Development (USAID)</t>
+  </si>
+  <si>
+    <t>Commodity Futures Trading Commission (CFTC)</t>
+  </si>
+  <si>
+    <t>Consumer Product Safety Commission (CPSC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corps of Engineers </t>
+  </si>
+  <si>
+    <t>Department of Agriculture (USDA)</t>
+  </si>
+  <si>
+    <t>Department of Commerce (DOC)</t>
+  </si>
+  <si>
+    <t>Department of Defense (DOD)</t>
+  </si>
+  <si>
+    <t>Department of Education (ED)</t>
+  </si>
+  <si>
+    <t>Department of Energy (DOE)</t>
+  </si>
+  <si>
+    <t>Department of Health and Human Services (HHS)</t>
+  </si>
+  <si>
+    <t>Department of Homeland Security (DHS)</t>
+  </si>
+  <si>
+    <t>Department of Housing and Urban Development (HUD)</t>
+  </si>
+  <si>
+    <t>Department of Justice (DOJ)</t>
+  </si>
+  <si>
+    <t>Department of State (DOS)</t>
+  </si>
+  <si>
+    <t>Department of Transportation (DOT)</t>
+  </si>
+  <si>
+    <t>Department of Veterans Affairs (VA)</t>
+  </si>
+  <si>
+    <t>Department of the Interior (DOI)</t>
+  </si>
+  <si>
+    <t>Election Assistance Commission (EAC)</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agency (EPA)</t>
+  </si>
+  <si>
+    <t>Equal Employment Opportunity Commission (EEOC)</t>
+  </si>
+  <si>
+    <t>Export-Import Bank of the United States</t>
+  </si>
+  <si>
+    <t>Federal Communications Commission (FCC)</t>
+  </si>
+  <si>
+    <t>Federal Labor Relations Authority (FLRA)</t>
+  </si>
+  <si>
+    <t>Federal Trade Commission (FTC)</t>
+  </si>
+  <si>
+    <t>General Services Administration (GSA)</t>
+  </si>
+  <si>
+    <t>Government Accountability Office (GAO)</t>
+  </si>
+  <si>
+    <t>National Aeronautics and Space Administration (NASA)</t>
+  </si>
+  <si>
+    <t>National Archives and Records Administration (NARA)</t>
+  </si>
+  <si>
+    <t>National Credit Union Administration (NCUA)</t>
+  </si>
+  <si>
+    <t>National Endowment for the Arts (NEA)</t>
+  </si>
+  <si>
+    <t>National Labor Relations Board (NLRB)</t>
+  </si>
+  <si>
+    <t>National Science Foundation (NSF)</t>
+  </si>
+  <si>
+    <t>National Transportation Safety Board (NTSB)</t>
+  </si>
+  <si>
+    <t>Nuclear Regulatory Commission (NRC)</t>
+  </si>
+  <si>
+    <t>Office of Personnel Management (OPM)</t>
+  </si>
+  <si>
+    <t>Railroad Retirement Board (RRB)</t>
+  </si>
+  <si>
+    <t>Securities and Exchange Commission (SEC)</t>
+  </si>
+  <si>
+    <t>Selective Service System (SSS)</t>
+  </si>
+  <si>
+    <t>Small Business Administration (SBA)</t>
+  </si>
+  <si>
+    <t>Social Security Administration (SSA)</t>
+  </si>
+  <si>
+    <t>/federal-agencies/administrative-conference-of-the-united-states</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-agency-for-international-development</t>
+  </si>
+  <si>
+    <t>/federal-agencies/appalachian-regional-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/armed-forces-retirement-home</t>
+  </si>
+  <si>
+    <t>/federal-agencies/consumer-financial-protection-bureau</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-commodity-futures-trading-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/consumer-product-safety-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/defense-nuclear-facilities-safety-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/delta-regional-authority</t>
+  </si>
+  <si>
+    <t>/federal-agencies/denali-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-agriculture</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-commerce</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-defense</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-education</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-energy</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-health-and-human-services</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-homeland-security</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-housing-and-urban-development</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-justice</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-state</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-transportation</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-veterans-affairs</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-the-interior</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-department-of-the-treasury</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-election-assistance-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/environmental-protection-agency</t>
+  </si>
+  <si>
+    <t>/federal-agencies/equal-employment-opportunity-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/export-import-bank-of-the-united-states</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-communications-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-election-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-labor-relations-authority</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-maritime-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-mediation-and-conciliation-service</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-mine-safety-and-health-review-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/federal-trade-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/general-services-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/government-accountability-office</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-international-trade-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/marine-mammal-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/merit-systems-protection-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/morris-k-udall-and-stewart-l-udall-foundation</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-aeronautics-and-space-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-archives-and-records-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-capital-planning-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-credit-union-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-endowment-for-the-arts</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-endowment-for-the-humanities</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-labor-relations-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-mediation-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-science-foundation</t>
+  </si>
+  <si>
+    <t>/federal-agencies/national-transportation-safety-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-nuclear-regulatory-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/occupational-safety-and-health-review-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/office-of-personnel-management</t>
+  </si>
+  <si>
+    <t>/federal-agencies/office-of-special-counsel</t>
+  </si>
+  <si>
+    <t>/federal-agencies/railroad-retirement-board</t>
+  </si>
+  <si>
+    <t>/federal-agencies/securities-and-exchange-commission</t>
+  </si>
+  <si>
+    <t>/federal-agencies/selective-service-system</t>
+  </si>
+  <si>
+    <t>/federal-agencies/small-business-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/social-security-administration</t>
+  </si>
+  <si>
+    <t>/federal-agencies/surface-transportation-board</t>
+  </si>
+  <si>
+    <t>The Administrative Conference of the United States is an independent federal agency dedicated to improving federal agency administrative processes and procedures.</t>
+  </si>
+  <si>
+    <t>The U.S. Agency for International Development (USAID) is the principal U.S. agency to extend assistance to countries recovering from disaster, trying to escape poverty, and engaging in democratic reforms.</t>
+  </si>
+  <si>
+    <t>The Appalachian Regional Commission works for sustainable community and economic development in Appalachia.</t>
+  </si>
+  <si>
+    <t>The Gulfport and Washington campuses of the Armed Forces Retirement Home are retirement centers for veterans of the U.S. military.</t>
+  </si>
+  <si>
+    <t>The Consumer Financial Protection Bureau helps consumers by providing educational materials and accepting complaints. It supervises banks, lenders, and large non-bank entities, such as credit reporting agencies and debt collection companies. The Bureau also works to make credit card, mortgage, and other loan disclosures clearer, so consumers can understand their rights and responsibilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Commodity Futures Trading Commission protects the public from fraud, manipulation, and abusive practices related to the sale of commodity and financial futures and options, and to fosters open, competitive, and financially sound futures and option markets. They investigate and prosecute commodities fraud, including foreign currency schemes, energy manipulation and hedge fund fraud, and works with other federal and state agencies to bring criminal and other actions. </t>
+  </si>
+  <si>
+    <t>The Consumer Product Safety Commission (CPSC) protects the public from unreasonable risks of serious injury or death from thousands of types of consumer products under its jurisdiction, including products that pose a fire, electrical, chemical, or mechanical hazard or can injure children.</t>
+  </si>
+  <si>
+    <t>The Defense Nuclear Facilities Safety Board reviews the content and implementation of health and safety standards at Department of Energy Defense Nuclear Facilities. The board also makes recommendations to the President and Secretary of Energy regarding health and safety issues at Defense Nuclear Facilities.</t>
+  </si>
+  <si>
+    <t>The Delta Regional Authority is a partnership to improve economic and community growth in eight states. Those states are Alabama, Arkansas, Illinois, Kentucky, Louisiana, Mississippi, Missouri, and Tennessee.</t>
+  </si>
+  <si>
+    <t>The Denali Commission provides critical utilities, infrastructure, and economic support throughout Alaska.</t>
+  </si>
+  <si>
+    <t>The Department of Agriculture provides leadership on food, agriculture, natural resources, and related issues.</t>
+  </si>
+  <si>
+    <t>The Department of Commerce works with businesses, universities, communities, and the Nation’s workers to promote job creation, economic growth, sustainable development, and improved standards of living for Americans.</t>
+  </si>
+  <si>
+    <t>The Department of Defense provides the military forces needed to deter war, and to protect the security of the United States.</t>
+  </si>
+  <si>
+    <t>The Department of Education fosters educational excellence, and to ensures equal access to educational opportunity for all.</t>
+  </si>
+  <si>
+    <t>The Department of Energy manages the United States' nuclear infrastructure and administers the country's energy policy. The Department of Energy also funds scientific research in the field.</t>
+  </si>
+  <si>
+    <t>The Department of Health and Human Services protects the health of all Americans and provides essential human services.</t>
+  </si>
+  <si>
+    <t>The Department of Homeland Security works to improve the security of the United States. The Department's work includes customs, border, and immigration enforcement, emergency response to natural and manmade disasters, antiterrorism work, and cybersecurity.</t>
+  </si>
+  <si>
+    <t>The Department of Housing and Urban Development administers programs that provide housing and community development assistance. The Department also works to ensure fair and equal housing opportunity for all.</t>
+  </si>
+  <si>
+    <t>The Department of Justice enforces federal laws, seeks just punishment for the guilty, and ensures the fair and impartial administration of justice.</t>
+  </si>
+  <si>
+    <t>The Department of State advises the President and leads the nation in foreign policy issues. The State Department negotiates treaties and agreements with foreign entities, and represents the United States at the United Nations.</t>
+  </si>
+  <si>
+    <t>The Department of Transportation is responsible for planning and coordinating federal transportation projects. It also sets safety regulations for all major modes of transportation.</t>
+  </si>
+  <si>
+    <t>The Department of Veterans Affairs runs programs benefiting veterans and members of their families. It offers education opportunities and rehabilitation services and provides compensation payments for disabilities or death related to military service, home loan guaranties, pensions, burials, and health care that includes the services of nursing homes, clinics, and medical centers.</t>
+  </si>
+  <si>
+    <t>The Department of the Interior manages public lands and minerals, national parks, and wildlife refuges and upholds Federal trust responsibilities to Indian tribes and Native Alaskans. Additionally, Interior is responsible for endangered species conservation and other environmental conservation efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Department of the Treasury manages Federal finances by collecting taxes and paying bills and by managing currency, government accounts and public debt. The Department of the Treasury also enforces finance and tax laws. _x000D_
+</t>
+  </si>
+  <si>
+    <t>The Election Assistance Commission (EAC) supports state and local election officials in their efforts to ensure accessible, accurate. and secure elections. EAC develops guidance to meet the Help America Vote Act requirements, adopts voluntary voting system guidelines, and serves as a national clearinghouse of information on election administration. EAC also accredits testing laboratories and certifies voting systems, as well as audits the use of Help America Vote Act funds.</t>
+  </si>
+  <si>
+    <t>The Environmental Protection Agency protects people and the environment from significant health risks, sponsors and conducts research, and develops and enforces environmental regulations.</t>
+  </si>
+  <si>
+    <t>The Equal Employment Opportunity Commission (EEOC) enforces laws that make discrimination illegal in the workplace. The commission oversees all types of work situations including hiring, firing, promotions, harassment, training, wages, and benefits.</t>
+  </si>
+  <si>
+    <t>The Export-Import Bank assists American businesses export their goods by providing financial assistance in the form of loans, loan guarantees and insurance. The focus of the Export-Import Bank is on assisting small businesses.</t>
+  </si>
+  <si>
+    <t>The Federal Communications Commission regulates interstate and international communications through cable, radio, television, satellite and wire. The goal of the Commission is to promote connectivity and ensure a robust and competitive market.</t>
+  </si>
+  <si>
+    <t>The Federal Election Commission enforces federal campaign finance laws, including monitoring donation prohibitions, and limits and oversees public funding for presidential campaigns.</t>
+  </si>
+  <si>
+    <t>The Federal Labor Relations Authority is a quasi-judicial body that manages relations between federal agencies and employees.</t>
+  </si>
+  <si>
+    <t>The Federal Maritime Commission is responsible for regulating the U.S. international ocean transportation system for the benefit of U.S. exporters, importers, and the U.S. consumer.</t>
+  </si>
+  <si>
+    <t>The Federal Mediation and Conciliation Service provides mediation and other conflict resolution services for managing and enhancing labor-management relationships.</t>
+  </si>
+  <si>
+    <t>The Federal Mine Safety and Health Review Commission is an independent agency that administers trials and hears appeals of disputes relating directly to the Mine Safety and Health Act of 1977.</t>
+  </si>
+  <si>
+    <t>The Federal Trade Commission works to prevent fraudulent, deceptive, and unfair business practices. They also provide information to help consumers spot, stop, and avoid scams and fraud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The General Services Administration manages federal property and provides contracting options for government agencies. </t>
+  </si>
+  <si>
+    <t>The Government Accountability Office gathers information to help Congress determine how effectively executive branch agencies are doing their jobs.</t>
+  </si>
+  <si>
+    <t>The International Trade Commission investigates whether or not, and to what extent, an unfair trade practice harms U.S. businesses. When unfair trade practices are found to harm U.S. businesses, the Commission may implement corrective measures. The Commission also provides the President and Congress impartial information on international trade to inform trade policy.</t>
+  </si>
+  <si>
+    <t>The Marine Mammal Commission provides oversight of all marine mammal conservation policies and programs carried out by federal regulatory agencies.</t>
+  </si>
+  <si>
+    <t>The Merit Systems Protection Board hears appeals from federal employees, and studies federal merit systems in an effort to protect the rights of federal employees.</t>
+  </si>
+  <si>
+    <t>The Morris K. Udall and Stewart L. Udall Foundation provides assessment, mediation, and other services to resolve environmental conflicts. The Foundation also supports educational opportunities in the area of environmental policy.</t>
+  </si>
+  <si>
+    <t>The National Aeronautics and Space Administration (NASA) explores space, and researches Earth systems, the solar system, and the universe.</t>
+  </si>
+  <si>
+    <t>The National Archives and Records Administration preserves U.S. government records, manages the Presidential Libraries system, and publishes laws, regulations, Presidential, and other public documents.</t>
+  </si>
+  <si>
+    <t>The National Capital Planning Commission crafts long-range plans and policies for the National Capital Region. The Commission provides building and zoning advice to Washington, DC and the surrounding area, and approves various federal construction plans.</t>
+  </si>
+  <si>
+    <t>The National Credit Union Administration charters and supervises federal credit unions, and insures savings in federal and most state-chartered credit unions.</t>
+  </si>
+  <si>
+    <t>The National Endowment for the Arts funds, promotes, and strengthens the creative capacity of our communities by providing all Americans with opportunities for arts participation.</t>
+  </si>
+  <si>
+    <t>The National Endowment for the Humanities funds humanities programs in the United States such as museums, archives, libraries, colleges, universities, public television, radio stations, and individual scholars.</t>
+  </si>
+  <si>
+    <t>The National Labor Relations Board enforces the National Labor Relations Act by investigating allegations of wrong-doing brought by workers, unions, or employers, conducting elections, and deciding and resolving cases.</t>
+  </si>
+  <si>
+    <t>The National Mediation Board facilitates the resolution of labor-management disputes in the rail and airline industries.</t>
+  </si>
+  <si>
+    <t>The National Science Foundation supports research and education across all fields of science and technology, primarily through grants.</t>
+  </si>
+  <si>
+    <t>The National Transportation Safety Board investigates every civil aviation accident in the U.S. and significant accidents in other modes of transportation. Based on their investigative findings and special studies, the board makes recommendations aimed at preventing future accidents.</t>
+  </si>
+  <si>
+    <t>The Nuclear Regulatory Commission regulates commercial nuclear power plants, and other uses of nuclear materials.</t>
+  </si>
+  <si>
+    <t>The Occupational Safety and Health Review Commission hears trials and appeals, deciding contests of citations or penalties that result from inspections performed by the Occupational Safety and Health Administration.</t>
+  </si>
+  <si>
+    <t>The Office of Personnel Management manages the civil service of the federal government, coordinates recruiting of new government employees, and manages their health insurance and retirement benefits programs. They  also provide resources for locating student jobs, summer jobs, scholarships, and internships.</t>
+  </si>
+  <si>
+    <t>The Office of Special Counsel is an investigative and prosecutorial office that works to end government and political corruption, and to protect government employees and whistleblowers.</t>
+  </si>
+  <si>
+    <t>The Railroad Retirement Board administers retirement, survivor, unemployment, and sickness benefits for U.S. railroad workers and their families.</t>
+  </si>
+  <si>
+    <t>The Securities and Exchange Commission oversees securities exchanges, securities brokers and dealers, investment advisors, and mutual funds in an effort to promote fair dealing, the disclosure of important market information, and to prevent fraud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Selective Service System provides the Department of Defense personnel in the event of a national emergency. Male citizens and immigrants are required to register with the Selective Service when they turn 18. </t>
+  </si>
+  <si>
+    <t>The Small Business Administration helps Americans start, build and grow businesses. Through an extensive network of field offices and partnerships, the Small Business Administration assists and protects the interests of small business concerns.</t>
+  </si>
+  <si>
+    <t>The Social Security Administration assigns Social Security numbers, and administers the Social Security retirement, survivors, and disability insurance programs. They also administer the Supplemental Security Income program for the aged, blind, and disabled.</t>
+  </si>
+  <si>
+    <t>The Surface Transportation Board regulates and decides disputes involving railroad rates, railroad mergers or line sales, and certain other transportation matters.</t>
+  </si>
+  <si>
+    <t>https://www.acus.gov/</t>
+  </si>
+  <si>
+    <t>http://www.usaid.gov/</t>
+  </si>
+  <si>
+    <t>https://www.arc.gov/</t>
+  </si>
+  <si>
+    <t>http://www.afrh.gov/</t>
+  </si>
+  <si>
+    <t>https://www.consumerfinance.gov/</t>
+  </si>
+  <si>
+    <t>https://www.cftc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.cpsc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.dnfsb.gov/</t>
+  </si>
+  <si>
+    <t>https://dra.gov/</t>
+  </si>
+  <si>
+    <t>https://www.denali.gov/</t>
+  </si>
+  <si>
+    <t>https://www.usda.gov/</t>
+  </si>
+  <si>
+    <t>https://www.commerce.gov/</t>
+  </si>
+  <si>
+    <t>https://www.defense.gov/</t>
+  </si>
+  <si>
+    <t>http://www.ed.gov</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/</t>
+  </si>
+  <si>
+    <t>https://www.hhs.gov/</t>
+  </si>
+  <si>
+    <t>https://www.dhs.gov/</t>
+  </si>
+  <si>
+    <t>https://www.hud.gov/</t>
+  </si>
+  <si>
+    <t>https://www.justice.gov/</t>
+  </si>
+  <si>
+    <t>https://www.state.gov/</t>
+  </si>
+  <si>
+    <t>https://www.transportation.gov</t>
+  </si>
+  <si>
+    <t>http://www.va.gov/</t>
+  </si>
+  <si>
+    <t>https://www.doi.gov/</t>
+  </si>
+  <si>
+    <t>http://www.treasury.gov/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>http://www.eac.gov/</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/</t>
+  </si>
+  <si>
+    <t>https://www.eeoc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.exim.gov</t>
+  </si>
+  <si>
+    <t>https://www.fcc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.fec.gov/</t>
+  </si>
+  <si>
+    <t>http://www.flra.gov</t>
+  </si>
+  <si>
+    <t>https://www.fmc.gov/</t>
+  </si>
+  <si>
+    <t>http://www.fmcs.gov/</t>
+  </si>
+  <si>
+    <t>http://www.fmshrc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.ftc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.gsa.gov/</t>
+  </si>
+  <si>
+    <t>https://www.gao.gov/</t>
+  </si>
+  <si>
+    <t>http://www.usitc.gov/</t>
+  </si>
+  <si>
+    <t>http://www.mmc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.mspb.gov/</t>
+  </si>
+  <si>
+    <t>http://www.udall.gov/</t>
+  </si>
+  <si>
+    <t>https://www.nasa.gov/</t>
+  </si>
+  <si>
+    <t>https://www.archives.gov/</t>
+  </si>
+  <si>
+    <t>http://www.ncpc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.ncua.gov/</t>
+  </si>
+  <si>
+    <t>https://www.arts.gov/</t>
+  </si>
+  <si>
+    <t>http://www.neh.gov</t>
+  </si>
+  <si>
+    <t>https://www.nlrb.gov/</t>
+  </si>
+  <si>
+    <t>https://nmb.gov/NMB_Application/</t>
+  </si>
+  <si>
+    <t>http://www.nsf.gov/</t>
+  </si>
+  <si>
+    <t>https://www.ntsb.gov/Pages/default.aspx</t>
+  </si>
+  <si>
+    <t>http://www.nrc.gov/</t>
+  </si>
+  <si>
+    <t>http://www.oshrc.gov/index.html</t>
+  </si>
+  <si>
+    <t>https://www.opm.gov/</t>
+  </si>
+  <si>
+    <t>https://osc.gov/</t>
+  </si>
+  <si>
+    <t>https://rrb.gov/</t>
+  </si>
+  <si>
+    <t>http://www.sec.gov/</t>
+  </si>
+  <si>
+    <t>https://www.sss.gov/</t>
+  </si>
+  <si>
+    <t>http://www.sba.gov/</t>
+  </si>
+  <si>
+    <t>http://www.ssa.gov/</t>
+  </si>
+  <si>
+    <t>https://www.stb.gov/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +1173,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,16 +1214,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,621 +1522,1443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" t="s">
+        <v>285</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>310</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" t="s">
+        <v>311</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E72" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" t="s">
+        <v>316</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" t="s">
+        <v>317</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6"/>
+    <hyperlink ref="F12" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F20" r:id="rId12"/>
+    <hyperlink ref="F21" r:id="rId13"/>
+    <hyperlink ref="F22" r:id="rId14"/>
+    <hyperlink ref="F23" r:id="rId15"/>
+    <hyperlink ref="F24" r:id="rId16"/>
+    <hyperlink ref="F25" r:id="rId17"/>
+    <hyperlink ref="F26" r:id="rId18"/>
+    <hyperlink ref="F27" r:id="rId19"/>
+    <hyperlink ref="F28" r:id="rId20"/>
+    <hyperlink ref="F29" r:id="rId21"/>
+    <hyperlink ref="F30" r:id="rId22"/>
+    <hyperlink ref="F31" r:id="rId23"/>
+    <hyperlink ref="F32" r:id="rId24"/>
+    <hyperlink ref="F35" r:id="rId25"/>
+    <hyperlink ref="F36" r:id="rId26"/>
+    <hyperlink ref="F37" r:id="rId27"/>
+    <hyperlink ref="F38" r:id="rId28"/>
+    <hyperlink ref="F39" r:id="rId29"/>
+    <hyperlink ref="F40" r:id="rId30"/>
+    <hyperlink ref="F41" r:id="rId31"/>
+    <hyperlink ref="F42" r:id="rId32"/>
+    <hyperlink ref="F43" r:id="rId33"/>
+    <hyperlink ref="F44" r:id="rId34"/>
+    <hyperlink ref="F45" r:id="rId35"/>
+    <hyperlink ref="F46" r:id="rId36"/>
+    <hyperlink ref="F47" r:id="rId37"/>
+    <hyperlink ref="F50" r:id="rId38"/>
+    <hyperlink ref="F51" r:id="rId39"/>
+    <hyperlink ref="F52" r:id="rId40"/>
+    <hyperlink ref="F54" r:id="rId41"/>
+    <hyperlink ref="F55" r:id="rId42"/>
+    <hyperlink ref="F56" r:id="rId43"/>
+    <hyperlink ref="F57" r:id="rId44"/>
+    <hyperlink ref="F58" r:id="rId45"/>
+    <hyperlink ref="F59" r:id="rId46"/>
+    <hyperlink ref="F60" r:id="rId47"/>
+    <hyperlink ref="F61" r:id="rId48"/>
+    <hyperlink ref="F62" r:id="rId49"/>
+    <hyperlink ref="F63" r:id="rId50"/>
+    <hyperlink ref="F64" r:id="rId51"/>
+    <hyperlink ref="F65" r:id="rId52"/>
+    <hyperlink ref="F66" r:id="rId53"/>
+    <hyperlink ref="F67" r:id="rId54"/>
+    <hyperlink ref="F68" r:id="rId55"/>
+    <hyperlink ref="F71" r:id="rId56"/>
+    <hyperlink ref="F72" r:id="rId57"/>
+    <hyperlink ref="F73" r:id="rId58"/>
+    <hyperlink ref="F74" r:id="rId59"/>
+    <hyperlink ref="F75" r:id="rId60"/>
+    <hyperlink ref="F76" r:id="rId61"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alia/Documents/Github/SpendApp/Clean_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83BDA8-B1A4-9E4F-801C-13E2B7A3E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16680" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="411">
   <si>
     <t>CGAC</t>
   </si>
@@ -235,9 +241,6 @@
     <t>062</t>
   </si>
   <si>
-    <t>431</t>
-  </si>
-  <si>
     <t>071</t>
   </si>
   <si>
@@ -271,33 +274,15 @@
     <t>Armed Forces Retirement Home</t>
   </si>
   <si>
-    <t>Broadcasting Board of Governors</t>
-  </si>
-  <si>
     <t>Bureau of Consumer Financial Protection</t>
   </si>
   <si>
-    <t>Chemical Safety and Hazard Investigation Board</t>
-  </si>
-  <si>
-    <t>Committee for Purchase From People Who Are Blind or Severely Disabled</t>
-  </si>
-  <si>
     <t>Commodity Futures Trading Commission</t>
   </si>
   <si>
     <t>Consumer Product Safety Commission</t>
   </si>
   <si>
-    <t>Corporation for National and Community Service</t>
-  </si>
-  <si>
-    <t>Corps of Engineers - Civil Works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council of the Inspectors General on Integrity and Efficiency </t>
-  </si>
-  <si>
     <t>Defense Nuclear Facilities Safety Board</t>
   </si>
   <si>
@@ -397,9 +382,6 @@
     <t>Gulf Coast Ecosystem Restoration Council</t>
   </si>
   <si>
-    <t>Institute of Museum Services and Library Services</t>
-  </si>
-  <si>
     <t>International Trade Commission</t>
   </si>
   <si>
@@ -409,9 +391,6 @@
     <t>Merit Systems Protection Board</t>
   </si>
   <si>
-    <t>Millenium Challenge Corporation</t>
-  </si>
-  <si>
     <t>Morris K. Udall and Stewart L. Udall Foundation</t>
   </si>
   <si>
@@ -457,9 +436,6 @@
     <t>Office of Special Counsel</t>
   </si>
   <si>
-    <t>Office of the Nuclear Waste Negotiation</t>
-  </si>
-  <si>
     <t>Overseas Private Investment Corporation</t>
   </si>
   <si>
@@ -491,9 +467,6 @@
   </si>
   <si>
     <t>Consumer Product Safety Commission (CPSC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corps of Engineers </t>
   </si>
   <si>
     <t>Department of Agriculture (USDA)</t>
@@ -1152,13 +1125,142 @@
   </si>
   <si>
     <t>https://www.stb.gov/</t>
+  </si>
+  <si>
+    <t>U.S. Agency for Global Media</t>
+  </si>
+  <si>
+    <t>Corps of Engineers</t>
+  </si>
+  <si>
+    <t>U.S. International Development Finance Corporation (DFC)</t>
+  </si>
+  <si>
+    <t>AbilityOne Commission</t>
+  </si>
+  <si>
+    <t>The U.S. Agency for Global Media, formerly known as the Broadcasting Board of Governors, broadcasts news and information about the United States and the world to audiences abroad.</t>
+  </si>
+  <si>
+    <t>https://www.usagm.gov/</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-agency-for-global-media</t>
+  </si>
+  <si>
+    <t>https://www.abilityone.gov/</t>
+  </si>
+  <si>
+    <t>The AbilityOne Commission, formerly known as Committee for Purchase From People Who Are Blind or Severely Disabled, creates job opportunities for people who are blind or have other significant disabilities in the manufacture and delivery of products and services to the Federal Government.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-abilityone-commission</t>
+  </si>
+  <si>
+    <t>U.S. Army Corps of Engineers</t>
+  </si>
+  <si>
+    <t>http://www.usace.army.mil/</t>
+  </si>
+  <si>
+    <t>The Army Corps of Engineers provides public engineering services in peace and war to strengthen national security, energize the economy, and reduce risks from disasters.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-army-corps-of-engineers</t>
+  </si>
+  <si>
+    <t>AmeriCorps</t>
+  </si>
+  <si>
+    <t>Formerly known as the Corporation for National and Community Service, AmeriCorps, and AmeriCorps Seniors engage volunteers in serving directly with nonprofit organizations to tackle the nation's most pressing challenges.</t>
+  </si>
+  <si>
+    <t>https://americorps.gov/</t>
+  </si>
+  <si>
+    <t>/federal-agencies/americorps</t>
+  </si>
+  <si>
+    <t>Council of the Inspectors General on Integrity and Efficiency</t>
+  </si>
+  <si>
+    <t>http://www.ignet.gov/</t>
+  </si>
+  <si>
+    <t>The Council of the Inspectors General on Integrity and Efficiency address integrity, economy, and effectiveness issues in the federal government.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/council-of-the-inspectors-general-on-integrity-and-efficiency</t>
+  </si>
+  <si>
+    <t>The U.S. International Development Finance Corporation (DFC) is America’s development bank. DFC partners with the private sector to finance solutions to the most critical challenges facing the developing world.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-international-development-finance-corporation</t>
+  </si>
+  <si>
+    <t>https://www.dfc.gov/</t>
+  </si>
+  <si>
+    <t>Chemical Safety Board</t>
+  </si>
+  <si>
+    <t>https://www.csb.gov/</t>
+  </si>
+  <si>
+    <t>The Chemical Safety Board investigates industrial chemical accidents.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/u-s-chemical-safety-board</t>
+  </si>
+  <si>
+    <t>https://oig.usaid.gov/OPIC</t>
+  </si>
+  <si>
+    <t>Established in 1971, the Overseas Private Investment Corporation (OPIC) serves as the U.S. Government’s development finance institution. It mobilizes private capital to help solve critical development challenges and in doing so, advances U.S. foreign policy.</t>
+  </si>
+  <si>
+    <t>https://www.mcc.gov/</t>
+  </si>
+  <si>
+    <t>Millennium Challenge Corporation</t>
+  </si>
+  <si>
+    <t>The Millennium Challenge Corporation partners with the best-governed poor countries worldwide to promote economic growth and help people lift themselves out of poverty.</t>
+  </si>
+  <si>
+    <t>/federal-agencies/millennium-challenge-corporation</t>
+  </si>
+  <si>
+    <t>https://www.restorethegulf.gov/</t>
+  </si>
+  <si>
+    <t>Institute of Museum and Library Services</t>
+  </si>
+  <si>
+    <t>/federal-agencies/institute-of-museum-and-library-services</t>
+  </si>
+  <si>
+    <t>The Institute of Museum and Library Services is a grant making organization that also conducts research and develops policy. The Institute helps libraries and museums innovate, fosters lifelong learning and cultural and civic engagement.</t>
+  </si>
+  <si>
+    <t>https://www.imls.gov/</t>
+  </si>
+  <si>
+    <t>Spurred by the Deepwater Horizon oil spill, the Resources and Ecosystems Sustainability, Tourist Opportunities, and Revived Economies of the Gulf Coast States Act (RESTORE Act) was signed into law by President Obama on July 6, 2012. The RESTORE Act calls for a regional approach to restoring the long-term health of the valuable natural ecosystem and economy of the Gulf Coast region. The RESTORE Act established the Gulf Coast Ecosystem Restoration Council (Council)</t>
+  </si>
+  <si>
+    <t>https://www.dccourts.gov/</t>
+  </si>
+  <si>
+    <t>The DC Courts are comprised of the DC Court of Appeals, the Superior Court of DC, and the Court System, which provides administrative support to both courts. The DC Courts are the third branch of the District of Columbia government. The Mayor presides over the executive branch and the Council of the District of Columbia is the legislative branch. The Courts hear and decide cases based on the evidence and the applicable law.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,12 +1323,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,6 +1337,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1280,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,9 +1423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1346,6 +1475,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1521,14 +1668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1556,1408 +1705,1532 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>368</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>393</v>
+      </c>
+      <c r="D9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>382</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>369</v>
+      </c>
+      <c r="D14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>386</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>404</v>
+      </c>
+      <c r="D49" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="D53" t="s">
+        <v>402</v>
+      </c>
+      <c r="E53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E60" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E62" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>398</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" t="s">
-        <v>317</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
-    <hyperlink ref="F12" r:id="rId7"/>
-    <hyperlink ref="F16" r:id="rId8"/>
-    <hyperlink ref="F17" r:id="rId9"/>
-    <hyperlink ref="F18" r:id="rId10"/>
-    <hyperlink ref="F19" r:id="rId11"/>
-    <hyperlink ref="F20" r:id="rId12"/>
-    <hyperlink ref="F21" r:id="rId13"/>
-    <hyperlink ref="F22" r:id="rId14"/>
-    <hyperlink ref="F23" r:id="rId15"/>
-    <hyperlink ref="F24" r:id="rId16"/>
-    <hyperlink ref="F25" r:id="rId17"/>
-    <hyperlink ref="F26" r:id="rId18"/>
-    <hyperlink ref="F27" r:id="rId19"/>
-    <hyperlink ref="F28" r:id="rId20"/>
-    <hyperlink ref="F29" r:id="rId21"/>
-    <hyperlink ref="F30" r:id="rId22"/>
-    <hyperlink ref="F31" r:id="rId23"/>
-    <hyperlink ref="F32" r:id="rId24"/>
-    <hyperlink ref="F35" r:id="rId25"/>
-    <hyperlink ref="F36" r:id="rId26"/>
-    <hyperlink ref="F37" r:id="rId27"/>
-    <hyperlink ref="F38" r:id="rId28"/>
-    <hyperlink ref="F39" r:id="rId29"/>
-    <hyperlink ref="F40" r:id="rId30"/>
-    <hyperlink ref="F41" r:id="rId31"/>
-    <hyperlink ref="F42" r:id="rId32"/>
-    <hyperlink ref="F43" r:id="rId33"/>
-    <hyperlink ref="F44" r:id="rId34"/>
-    <hyperlink ref="F45" r:id="rId35"/>
-    <hyperlink ref="F46" r:id="rId36"/>
-    <hyperlink ref="F47" r:id="rId37"/>
-    <hyperlink ref="F50" r:id="rId38"/>
-    <hyperlink ref="F51" r:id="rId39"/>
-    <hyperlink ref="F52" r:id="rId40"/>
-    <hyperlink ref="F54" r:id="rId41"/>
-    <hyperlink ref="F55" r:id="rId42"/>
-    <hyperlink ref="F56" r:id="rId43"/>
-    <hyperlink ref="F57" r:id="rId44"/>
-    <hyperlink ref="F58" r:id="rId45"/>
-    <hyperlink ref="F59" r:id="rId46"/>
-    <hyperlink ref="F60" r:id="rId47"/>
-    <hyperlink ref="F61" r:id="rId48"/>
-    <hyperlink ref="F62" r:id="rId49"/>
-    <hyperlink ref="F63" r:id="rId50"/>
-    <hyperlink ref="F64" r:id="rId51"/>
-    <hyperlink ref="F65" r:id="rId52"/>
-    <hyperlink ref="F66" r:id="rId53"/>
-    <hyperlink ref="F67" r:id="rId54"/>
-    <hyperlink ref="F68" r:id="rId55"/>
-    <hyperlink ref="F71" r:id="rId56"/>
-    <hyperlink ref="F72" r:id="rId57"/>
-    <hyperlink ref="F73" r:id="rId58"/>
-    <hyperlink ref="F74" r:id="rId59"/>
-    <hyperlink ref="F75" r:id="rId60"/>
-    <hyperlink ref="F76" r:id="rId61"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F50" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F52" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F66" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F7" r:id="rId62" xr:uid="{603E26B4-8F4D-BD4E-BA17-FF70A02176CF}"/>
+    <hyperlink ref="F10" r:id="rId63" xr:uid="{DAB1550E-5534-104D-A68E-701E0C815314}"/>
+    <hyperlink ref="F14" r:id="rId64" xr:uid="{553ADB28-D47E-2A4A-A2AF-6068AE2615FA}"/>
+    <hyperlink ref="F13" r:id="rId65" xr:uid="{F1A8E586-564B-3A49-A41E-391DFDE8FE6D}"/>
+    <hyperlink ref="F15" r:id="rId66" xr:uid="{5D8B3FF9-0E48-5A48-981E-C7E2B630BDC4}"/>
+    <hyperlink ref="F33" r:id="rId67" xr:uid="{1A7B50E0-5D67-6A4C-AF2E-3549A6F41D9A}"/>
+    <hyperlink ref="F9" r:id="rId68" xr:uid="{ABFDE6C0-13E8-DB45-89B1-CCDFC24EC8D5}"/>
+    <hyperlink ref="F69" r:id="rId69" xr:uid="{3A3BC0DA-9140-7341-9A8E-21549E2738FD}"/>
+    <hyperlink ref="F53" r:id="rId70" xr:uid="{32017068-7D4C-074E-9EDC-07B5200CF40A}"/>
+    <hyperlink ref="F49" r:id="rId71" xr:uid="{19F3F839-05AF-294E-A32C-04981D4F22F2}"/>
+    <hyperlink ref="F48" r:id="rId72" xr:uid="{98DDA6C2-DFF4-9B42-889F-27CFFCBF0FF9}"/>
+    <hyperlink ref="F34" r:id="rId73" xr:uid="{F51523AB-9F26-F44F-BC3D-22FAD6C657F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alia/Documents/Github/SpendApp/Clean_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC83BDA8-B1A4-9E4F-801C-13E2B7A3E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972F4CF-C66B-234B-A602-AB93E24B0FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16680" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="410">
   <si>
     <t>CGAC</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Website</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>302</t>
@@ -1323,13 +1320,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1698,913 +1698,910 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>185</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>310</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>249</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>377</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" t="s">
+        <v>395</v>
       </c>
       <c r="E10" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
+        <v>103</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>409</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>391</v>
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>409</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>403</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>119</v>
@@ -2612,76 +2609,79 @@
       <c r="C48" t="s">
         <v>119</v>
       </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
       <c r="E48" t="s">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>405</v>
+        <v>222</v>
       </c>
       <c r="E49" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>407</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>401</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>122</v>
@@ -2701,313 +2701,310 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>286</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
         <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
         <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
         <v>239</v>
@@ -3021,216 +3018,222 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>180</v>
+      </c>
+      <c r="D69" t="s">
+        <v>240</v>
       </c>
       <c r="E69" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="E75" t="s">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F76">
+    <sortCondition ref="B3:B76"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="F29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F31" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F35" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F37" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F38" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F39" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="F41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="F42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="F44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="F45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="F46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="F47" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="F50" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="F52" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F54" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="F55" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="F57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="F59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F66" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F7" r:id="rId62" xr:uid="{603E26B4-8F4D-BD4E-BA17-FF70A02176CF}"/>
-    <hyperlink ref="F10" r:id="rId63" xr:uid="{DAB1550E-5534-104D-A68E-701E0C815314}"/>
-    <hyperlink ref="F14" r:id="rId64" xr:uid="{553ADB28-D47E-2A4A-A2AF-6068AE2615FA}"/>
-    <hyperlink ref="F13" r:id="rId65" xr:uid="{F1A8E586-564B-3A49-A41E-391DFDE8FE6D}"/>
-    <hyperlink ref="F15" r:id="rId66" xr:uid="{5D8B3FF9-0E48-5A48-981E-C7E2B630BDC4}"/>
-    <hyperlink ref="F33" r:id="rId67" xr:uid="{1A7B50E0-5D67-6A4C-AF2E-3549A6F41D9A}"/>
-    <hyperlink ref="F9" r:id="rId68" xr:uid="{ABFDE6C0-13E8-DB45-89B1-CCDFC24EC8D5}"/>
-    <hyperlink ref="F69" r:id="rId69" xr:uid="{3A3BC0DA-9140-7341-9A8E-21549E2738FD}"/>
-    <hyperlink ref="F53" r:id="rId70" xr:uid="{32017068-7D4C-074E-9EDC-07B5200CF40A}"/>
-    <hyperlink ref="F49" r:id="rId71" xr:uid="{19F3F839-05AF-294E-A32C-04981D4F22F2}"/>
-    <hyperlink ref="F48" r:id="rId72" xr:uid="{98DDA6C2-DFF4-9B42-889F-27CFFCBF0FF9}"/>
-    <hyperlink ref="F34" r:id="rId73" xr:uid="{F51523AB-9F26-F44F-BC3D-22FAD6C657F0}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F53" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F54" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F59" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F60" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F63" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F64" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F65" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F66" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F70" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F72" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F74" r:id="rId62" xr:uid="{603E26B4-8F4D-BD4E-BA17-FF70A02176CF}"/>
+    <hyperlink ref="F3" r:id="rId63" xr:uid="{DAB1550E-5534-104D-A68E-701E0C815314}"/>
+    <hyperlink ref="F75" r:id="rId64" xr:uid="{553ADB28-D47E-2A4A-A2AF-6068AE2615FA}"/>
+    <hyperlink ref="F6" r:id="rId65" xr:uid="{F1A8E586-564B-3A49-A41E-391DFDE8FE6D}"/>
+    <hyperlink ref="F13" r:id="rId66" xr:uid="{5D8B3FF9-0E48-5A48-981E-C7E2B630BDC4}"/>
+    <hyperlink ref="F31" r:id="rId67" xr:uid="{1A7B50E0-5D67-6A4C-AF2E-3549A6F41D9A}"/>
+    <hyperlink ref="F10" r:id="rId68" xr:uid="{ABFDE6C0-13E8-DB45-89B1-CCDFC24EC8D5}"/>
+    <hyperlink ref="F67" r:id="rId69" xr:uid="{3A3BC0DA-9140-7341-9A8E-21549E2738FD}"/>
+    <hyperlink ref="F51" r:id="rId70" xr:uid="{32017068-7D4C-074E-9EDC-07B5200CF40A}"/>
+    <hyperlink ref="F47" r:id="rId71" xr:uid="{19F3F839-05AF-294E-A32C-04981D4F22F2}"/>
+    <hyperlink ref="F46" r:id="rId72" xr:uid="{98DDA6C2-DFF4-9B42-889F-27CFFCBF0FF9}"/>
+    <hyperlink ref="F32" r:id="rId73" xr:uid="{F51523AB-9F26-F44F-BC3D-22FAD6C657F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Clean_Data/CGAC_list.xlsx
+++ b/Clean_Data/CGAC_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alia/Documents/Github/SpendApp/Clean_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972F4CF-C66B-234B-A602-AB93E24B0FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BA3F3-20DE-ED47-8160-C80A1B144E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16680" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
